--- a/result_selenium.xlsx
+++ b/result_selenium.xlsx
@@ -511,12 +511,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37 999₴</t>
+          <t>37999</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>33 999₴</t>
+          <t>33999</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
